--- a/Documentação/Tabelas_LN/WHINR110-Transacoes Inventario por item e armazem.xlsx
+++ b/Documentação/Tabelas_LN/WHINR110-Transacoes Inventario por item e armazem.xlsx
@@ -1330,7 +1330,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
